--- a/biology/Botanique/Square_Duranton/Square_Duranton.xlsx
+++ b/biology/Botanique/Square_Duranton/Square_Duranton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Duranton est un square du 15e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se situe dans le périmètre compris entre les rues de la Convention, Lourmel, Duranton et l'avenue Félix-Faure.
 Il est desservi par la ligne 8 à la station Boucicaut.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il honore la mémoire de Ferdinand Duranton (1787-1838), célèbre explorateur français qui mourut à Bakel au Sénégal.
 </t>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ouvert en 1973, ce jardin sur dalle est aménagé sur un parc de stationnement. 
 Quelques arbres à soie, des tilleuls de Mongolie, des cyprès et des ifs donnent une allure plutôt végétale à cet endroit qu'apprécient les enfants des habitations voisines.
@@ -607,7 +625,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On y trouve tables de ping-pong, baby-foot, jeux à ressorts et toboggan.
 </t>
